--- a/files/for_xlsx/errors.xlsx
+++ b/files/for_xlsx/errors.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\PycharmProjects\Swag_Labs\files\for_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A33F74-D877-432B-8DD2-D0E253C2B5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7174ABE1-C4DB-4070-83F3-C050E576CF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auth_er" sheetId="1" r:id="rId1"/>
+    <sheet name="cart_er" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Epic sadface: Sorry, this user has been locked out.</t>
   </si>
@@ -58,6 +59,28 @@
   </si>
   <si>
     <t>auth_errors</t>
+  </si>
+  <si>
+    <t>cart_errors</t>
+  </si>
+  <si>
+    <t>Error: First Name is required</t>
+  </si>
+  <si>
+    <t>Error: Last Name is required</t>
+  </si>
+  <si>
+    <t>Error: Postal Code is required</t>
+  </si>
+  <si>
+    <t>1. Все поля пусты
+2. Поле "Имя" пустое</t>
+  </si>
+  <si>
+    <t>1. Поле фамилии пустое</t>
+  </si>
+  <si>
+    <t>1. Поле почт. индекса пустое</t>
   </si>
 </sst>
 </file>
@@ -87,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -110,11 +133,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -123,6 +168,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -407,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,4 +512,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F44CE0-B9F6-45D9-AD73-6AA0CD98D595}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.36328125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>